--- a/דוח מצב.xlsx
+++ b/דוח מצב.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>העמודות שרצינו בשביל הפרויקט</t>
   </si>
@@ -111,9 +111,6 @@
     <t>SongHotness</t>
   </si>
   <si>
-    <t>Loudness</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -172,6 +169,18 @@
   </si>
   <si>
     <t>חיבור המידע מהmysql לjava</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>albums</t>
+  </si>
+  <si>
+    <t>AlbumID</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +262,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -342,69 +357,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,14 +395,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -717,362 +737,394 @@
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="F1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="L2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="L4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="19" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="22" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="22" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="19" t="s">
-        <v>46</v>
+      <c r="B27" s="25"/>
+      <c r="C27" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1085,16 +1137,15 @@
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:M1"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="F1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -1102,7 +1153,8 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/דוח מצב.xlsx
+++ b/דוח מצב.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>העמודות שרצינו בשביל הפרויקט</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>AlbumID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EndOfFadeIn</t>
   </si>
 </sst>
 </file>
@@ -403,44 +406,44 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,14 +728,14 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="F8:G8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
@@ -742,27 +745,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="20"/>
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
@@ -792,10 +795,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
@@ -817,18 +820,18 @@
       <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -850,18 +853,18 @@
       <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
@@ -883,10 +886,10 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
@@ -896,18 +899,22 @@
       <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="5"/>
       <c r="L6" s="14"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,18 +932,18 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>25</v>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
@@ -946,10 +953,10 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -967,10 +974,10 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -984,10 +991,10 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1001,147 +1008,134 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="25"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -1155,6 +1149,19 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
